--- a/パッチツールサンプル.xlsx
+++ b/パッチツールサンプル.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_nakata\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\UWP-Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>NAKATA</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -632,10 +632,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
